--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7594749862603134</v>
+        <v>0.7350626295305793</v>
       </c>
       <c r="C11" t="n">
-        <v>2.357862035646505</v>
+        <v>2.30950128910393</v>
       </c>
       <c r="D11" t="n">
-        <v>4.201874234042976</v>
+        <v>4.006364823577237</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7350626295305793</v>
+        <v>0.7499333649359448</v>
       </c>
       <c r="C11" t="n">
-        <v>2.30950128910393</v>
+        <v>2.37203825157428</v>
       </c>
       <c r="D11" t="n">
-        <v>4.006364823577237</v>
+        <v>4.135342641693804</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7499333649359448</v>
+        <v>0.7547772147544153</v>
       </c>
       <c r="C11" t="n">
-        <v>2.37203825157428</v>
+        <v>2.324503886342973</v>
       </c>
       <c r="D11" t="n">
-        <v>4.135342641693804</v>
+        <v>4.036870997947321</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7547772147544153</v>
+        <v>0.7906539526856269</v>
       </c>
       <c r="C11" t="n">
-        <v>2.324503886342973</v>
+        <v>2.465399129839701</v>
       </c>
       <c r="D11" t="n">
-        <v>4.036870997947321</v>
+        <v>4.587998749460516</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7906539526856269</v>
+        <v>0.7425798164315878</v>
       </c>
       <c r="C11" t="n">
-        <v>2.465399129839701</v>
+        <v>2.33895792876023</v>
       </c>
       <c r="D11" t="n">
-        <v>4.587998749460516</v>
+        <v>3.760429019670491</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7425798164315878</v>
+        <v>0.756019792064605</v>
       </c>
       <c r="C11" t="n">
-        <v>2.33895792876023</v>
+        <v>2.349834033373274</v>
       </c>
       <c r="D11" t="n">
-        <v>3.760429019670491</v>
+        <v>4.000981161487015</v>
       </c>
     </row>
     <row r="12">
